--- a/cta策略/result/螺纹/TRIX_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/TRIX_1d/绩效.xlsx
@@ -441,13 +441,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.01301708372128774</v>
+        <v>0.008666500469750593</v>
       </c>
       <c r="D2">
-        <v>-0.1011716630186199</v>
+        <v>-0.1438452502115051</v>
       </c>
       <c r="E2">
-        <v>0.0242752321044353</v>
+        <v>0.0161619387983456</v>
       </c>
       <c r="F2">
         <v>0.45</v>
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.01189487669077971</v>
+        <v>-0.007952241367343738</v>
       </c>
       <c r="D3">
-        <v>-0.1952956136020715</v>
+        <v>-0.2209535607536683</v>
       </c>
       <c r="E3">
-        <v>-0.02415780080805685</v>
+        <v>-0.01615053841447489</v>
       </c>
       <c r="F3">
         <v>0.55</v>
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.0193938146369339</v>
+        <v>0.01289845896782293</v>
       </c>
       <c r="D4">
-        <v>-0.07765447015663944</v>
+        <v>-0.1250480060215632</v>
       </c>
       <c r="E4">
-        <v>0.04315030347480026</v>
+        <v>0.02869844995624908</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -501,13 +501,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.09012976315458054</v>
+        <v>-0.06107598720150731</v>
       </c>
       <c r="D5">
-        <v>-0.4898560587335448</v>
+        <v>-0.4658557520457818</v>
       </c>
       <c r="E5">
-        <v>-0.1649364175617291</v>
+        <v>-0.1117683457215506</v>
       </c>
       <c r="F5">
         <v>0.35</v>
@@ -521,13 +521,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.07145922399379734</v>
+        <v>-0.0482644215834821</v>
       </c>
       <c r="D6">
-        <v>-0.4207956094465256</v>
+        <v>-0.4080005618077951</v>
       </c>
       <c r="E6">
-        <v>-0.1427916011291495</v>
+        <v>-0.09644316926917504</v>
       </c>
       <c r="F6">
         <v>0.45</v>
@@ -541,13 +541,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>-0.04789596427104337</v>
+        <v>-0.03221720161044195</v>
       </c>
       <c r="D7">
-        <v>-0.3320128686290888</v>
+        <v>-0.3340043700990271</v>
       </c>
       <c r="E7">
-        <v>-0.1137108950988151</v>
+        <v>-0.07648758905804441</v>
       </c>
       <c r="F7">
         <v>0.55</v>
@@ -561,13 +561,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>-0.003583473449824792</v>
+        <v>-0.002392378066331524</v>
       </c>
       <c r="D8">
-        <v>-0.1648609007263936</v>
+        <v>-0.1963386621167278</v>
       </c>
       <c r="E8">
-        <v>-0.008301183604746794</v>
+        <v>-0.005541988759972001</v>
       </c>
       <c r="F8">
         <v>0.5</v>

--- a/cta策略/result/螺纹/TRIX_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/TRIX_1d/绩效.xlsx
@@ -441,13 +441,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.008666500469750593</v>
+        <v>0.02302782270448978</v>
       </c>
       <c r="D2">
-        <v>-0.1438452502115051</v>
+        <v>-0.07819551140957473</v>
       </c>
       <c r="E2">
-        <v>0.0161619387983456</v>
+        <v>0.0444281118255492</v>
       </c>
       <c r="F2">
         <v>0.45</v>
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.007952241367343738</v>
+        <v>0.004541575163832245</v>
       </c>
       <c r="D3">
-        <v>-0.2209535607536683</v>
+        <v>-0.1637375432087477</v>
       </c>
       <c r="E3">
-        <v>-0.01615053841447489</v>
+        <v>0.009525628418863771</v>
       </c>
       <c r="F3">
         <v>0.55</v>
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.01289845896782293</v>
+        <v>0.02362962273985403</v>
       </c>
       <c r="D4">
-        <v>-0.1250480060215632</v>
+        <v>-0.07569049181829009</v>
       </c>
       <c r="E4">
-        <v>0.02869844995624908</v>
+        <v>0.05415499196022635</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -501,13 +501,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06107598720150731</v>
+        <v>-0.05176932664962619</v>
       </c>
       <c r="D5">
-        <v>-0.4658557520457818</v>
+        <v>-0.4237821352674752</v>
       </c>
       <c r="E5">
-        <v>-0.1117683457215506</v>
+        <v>-0.09652447277772468</v>
       </c>
       <c r="F5">
         <v>0.35</v>
@@ -521,13 +521,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.0482644215834821</v>
+        <v>-0.03905103613336336</v>
       </c>
       <c r="D6">
-        <v>-0.4080005618077951</v>
+        <v>-0.3656113243924934</v>
       </c>
       <c r="E6">
-        <v>-0.09644316926917504</v>
+        <v>-0.07943694743631025</v>
       </c>
       <c r="F6">
         <v>0.45</v>
@@ -541,13 +541,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>-0.03221720161044195</v>
+        <v>-0.02359949345267209</v>
       </c>
       <c r="D7">
-        <v>-0.3340043700990271</v>
+        <v>-0.2945189392106878</v>
       </c>
       <c r="E7">
-        <v>-0.07648758905804441</v>
+        <v>-0.05759897396808936</v>
       </c>
       <c r="F7">
         <v>0.55</v>
@@ -561,13 +561,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>-0.002392378066331524</v>
+        <v>0.006411678228062545</v>
       </c>
       <c r="D8">
-        <v>-0.1963386621167278</v>
+        <v>-0.1556166928345828</v>
       </c>
       <c r="E8">
-        <v>-0.005541988759972001</v>
+        <v>0.01523111690932216</v>
       </c>
       <c r="F8">
         <v>0.5</v>

--- a/cta策略/result/螺纹/TRIX_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/TRIX_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>参数</t>
   </si>
@@ -34,25 +34,256 @@
     <t>绩效数据</t>
   </si>
   <si>
+    <t>[5, 4]</t>
+  </si>
+  <si>
+    <t>[5, 5]</t>
+  </si>
+  <si>
+    <t>[5, 6]</t>
+  </si>
+  <si>
+    <t>[5, 7]</t>
+  </si>
+  <si>
+    <t>[5, 8]</t>
+  </si>
+  <si>
+    <t>[5, 9]</t>
+  </si>
+  <si>
+    <t>[5, 10]</t>
+  </si>
+  <si>
+    <t>[6, 4]</t>
+  </si>
+  <si>
+    <t>[6, 5]</t>
+  </si>
+  <si>
+    <t>[6, 6]</t>
+  </si>
+  <si>
+    <t>[6, 7]</t>
+  </si>
+  <si>
+    <t>[6, 8]</t>
+  </si>
+  <si>
+    <t>[6, 9]</t>
+  </si>
+  <si>
+    <t>[6, 10]</t>
+  </si>
+  <si>
+    <t>[7, 4]</t>
+  </si>
+  <si>
+    <t>[7, 5]</t>
+  </si>
+  <si>
+    <t>[7, 6]</t>
+  </si>
+  <si>
+    <t>[7, 7]</t>
+  </si>
+  <si>
+    <t>[7, 8]</t>
+  </si>
+  <si>
+    <t>[7, 9]</t>
+  </si>
+  <si>
+    <t>[7, 10]</t>
+  </si>
+  <si>
+    <t>[8, 4]</t>
+  </si>
+  <si>
+    <t>[8, 5]</t>
+  </si>
+  <si>
     <t>[8, 6]</t>
   </si>
   <si>
+    <t>[8, 7]</t>
+  </si>
+  <si>
+    <t>[8, 8]</t>
+  </si>
+  <si>
+    <t>[8, 9]</t>
+  </si>
+  <si>
+    <t>[8, 10]</t>
+  </si>
+  <si>
+    <t>[9, 4]</t>
+  </si>
+  <si>
+    <t>[9, 5]</t>
+  </si>
+  <si>
+    <t>[9, 6]</t>
+  </si>
+  <si>
+    <t>[9, 7]</t>
+  </si>
+  <si>
+    <t>[9, 8]</t>
+  </si>
+  <si>
+    <t>[9, 9]</t>
+  </si>
+  <si>
+    <t>[9, 10]</t>
+  </si>
+  <si>
+    <t>[10, 4]</t>
+  </si>
+  <si>
+    <t>[10, 5]</t>
+  </si>
+  <si>
+    <t>[10, 6]</t>
+  </si>
+  <si>
     <t>[10, 7]</t>
   </si>
   <si>
+    <t>[10, 8]</t>
+  </si>
+  <si>
+    <t>[10, 9]</t>
+  </si>
+  <si>
+    <t>[10, 10]</t>
+  </si>
+  <si>
+    <t>[11, 4]</t>
+  </si>
+  <si>
+    <t>[11, 5]</t>
+  </si>
+  <si>
+    <t>[11, 6]</t>
+  </si>
+  <si>
+    <t>[11, 7]</t>
+  </si>
+  <si>
     <t>[11, 8]</t>
   </si>
   <si>
+    <t>[11, 9]</t>
+  </si>
+  <si>
+    <t>[11, 10]</t>
+  </si>
+  <si>
+    <t>[12, 4]</t>
+  </si>
+  <si>
+    <t>[12, 5]</t>
+  </si>
+  <si>
+    <t>[12, 6]</t>
+  </si>
+  <si>
+    <t>[12, 7]</t>
+  </si>
+  <si>
+    <t>[12, 8]</t>
+  </si>
+  <si>
     <t>[12, 9]</t>
   </si>
   <si>
-    <t>[13, 10]</t>
-  </si>
-  <si>
-    <t>[15, 11]</t>
-  </si>
-  <si>
-    <t>[16, 12]</t>
+    <t>[12, 10]</t>
+  </si>
+  <si>
+    <t>[14, 4]</t>
+  </si>
+  <si>
+    <t>[14, 5]</t>
+  </si>
+  <si>
+    <t>[14, 6]</t>
+  </si>
+  <si>
+    <t>[14, 7]</t>
+  </si>
+  <si>
+    <t>[14, 8]</t>
+  </si>
+  <si>
+    <t>[14, 9]</t>
+  </si>
+  <si>
+    <t>[14, 10]</t>
+  </si>
+  <si>
+    <t>[16, 4]</t>
+  </si>
+  <si>
+    <t>[16, 5]</t>
+  </si>
+  <si>
+    <t>[16, 6]</t>
+  </si>
+  <si>
+    <t>[16, 7]</t>
+  </si>
+  <si>
+    <t>[16, 8]</t>
+  </si>
+  <si>
+    <t>[16, 9]</t>
+  </si>
+  <si>
+    <t>[16, 10]</t>
+  </si>
+  <si>
+    <t>[18, 4]</t>
+  </si>
+  <si>
+    <t>[18, 5]</t>
+  </si>
+  <si>
+    <t>[18, 6]</t>
+  </si>
+  <si>
+    <t>[18, 7]</t>
+  </si>
+  <si>
+    <t>[18, 8]</t>
+  </si>
+  <si>
+    <t>[18, 9]</t>
+  </si>
+  <si>
+    <t>[18, 10]</t>
+  </si>
+  <si>
+    <t>[20, 4]</t>
+  </si>
+  <si>
+    <t>[20, 5]</t>
+  </si>
+  <si>
+    <t>[20, 6]</t>
+  </si>
+  <si>
+    <t>[20, 7]</t>
+  </si>
+  <si>
+    <t>[20, 8]</t>
+  </si>
+  <si>
+    <t>[20, 9]</t>
+  </si>
+  <si>
+    <t>[20, 10]</t>
   </si>
 </sst>
 </file>
@@ -410,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,16 +672,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.02302782270448978</v>
+        <v>-0.06743917048727122</v>
       </c>
       <c r="D2">
-        <v>-0.07819551140957473</v>
+        <v>-0.4890628107645282</v>
       </c>
       <c r="E2">
-        <v>0.0444281118255492</v>
+        <v>-0.1385905846101213</v>
       </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,16 +692,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.004541575163832245</v>
+        <v>-0.00626413845737761</v>
       </c>
       <c r="D3">
-        <v>-0.1637375432087477</v>
+        <v>-0.2117217591383507</v>
       </c>
       <c r="E3">
-        <v>0.009525628418863771</v>
+        <v>-0.01664069782223739</v>
       </c>
       <c r="F3">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,16 +712,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.02362962273985403</v>
+        <v>0.03639602752174587</v>
       </c>
       <c r="D4">
-        <v>-0.07569049181829009</v>
+        <v>-0.01654371654975108</v>
       </c>
       <c r="E4">
-        <v>0.05415499196022635</v>
+        <v>0.1096680210331186</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,16 +732,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.05176932664962619</v>
+        <v>0.0336395565724843</v>
       </c>
       <c r="D5">
-        <v>-0.4237821352674752</v>
+        <v>-0.02919216216633659</v>
       </c>
       <c r="E5">
-        <v>-0.09652447277772468</v>
+        <v>0.09390281756912802</v>
       </c>
       <c r="F5">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,16 +752,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.03905103613336336</v>
+        <v>-0.01110382336196558</v>
       </c>
       <c r="D6">
-        <v>-0.3656113243924934</v>
+        <v>-0.2342310235589194</v>
       </c>
       <c r="E6">
-        <v>-0.07943694743631025</v>
+        <v>-0.03001586047751094</v>
       </c>
       <c r="F6">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,13 +772,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>-0.02359949345267209</v>
+        <v>-0.01682947564570125</v>
       </c>
       <c r="D7">
-        <v>-0.2945189392106878</v>
+        <v>-0.2606219363728057</v>
       </c>
       <c r="E7">
-        <v>-0.05759897396808936</v>
+        <v>-0.0479513263331345</v>
       </c>
       <c r="F7">
         <v>0.55</v>
@@ -561,16 +792,1556 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.006411678228062545</v>
+        <v>-0.002859774404898818</v>
       </c>
       <c r="D8">
-        <v>-0.1556166928345828</v>
+        <v>-0.1966643604210165</v>
       </c>
       <c r="E8">
-        <v>0.01523111690932216</v>
+        <v>-0.007474768585924234</v>
       </c>
       <c r="F8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.01933820746204473</v>
+      </c>
+      <c r="D9">
+        <v>-0.0946629155292808</v>
+      </c>
+      <c r="E9">
+        <v>0.05462620221665112</v>
+      </c>
+      <c r="F9">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.01644749690049907</v>
+      </c>
+      <c r="D10">
+        <v>-0.1080085787323218</v>
+      </c>
+      <c r="E10">
+        <v>0.04079721344613006</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.02996925273937734</v>
+      </c>
+      <c r="D11">
+        <v>-0.04603546735634638</v>
+      </c>
+      <c r="E11">
+        <v>0.08945379987602155</v>
+      </c>
+      <c r="F11">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.003118448631726833</v>
+      </c>
+      <c r="D12">
+        <v>-0.1693096659757796</v>
+      </c>
+      <c r="E12">
+        <v>0.0066904212373509</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>-0.0063279384265581</v>
+      </c>
+      <c r="D13">
+        <v>-0.212542084697986</v>
+      </c>
+      <c r="E13">
+        <v>-0.01357345001739618</v>
+      </c>
+      <c r="F13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.01350713297945338</v>
+      </c>
+      <c r="D14">
+        <v>-0.1217329581596928</v>
+      </c>
+      <c r="E14">
+        <v>0.03319074950023315</v>
+      </c>
+      <c r="F14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.04235235769541368</v>
+      </c>
+      <c r="D15">
+        <v>0.01082430626991777</v>
+      </c>
+      <c r="E15">
+        <v>0.1267449506789688</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.0776968490401615</v>
+      </c>
+      <c r="D16">
+        <v>0.1731909426111962</v>
+      </c>
+      <c r="E16">
+        <v>0.2645863617547094</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0.02099323105758089</v>
+      </c>
+      <c r="D17">
+        <v>-0.08723864391103776</v>
+      </c>
+      <c r="E17">
+        <v>0.05155359703006986</v>
+      </c>
+      <c r="F17">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>-0.006315644944465015</v>
+      </c>
+      <c r="D18">
+        <v>-0.2125747190160105</v>
+      </c>
+      <c r="E18">
+        <v>-0.01244957009194461</v>
+      </c>
+      <c r="F18">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.02963603768390155</v>
+      </c>
+      <c r="D19">
+        <v>-0.04764026420146446</v>
+      </c>
+      <c r="E19">
+        <v>0.06831061145429106</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.1106539499548327</v>
+      </c>
+      <c r="D20">
+        <v>0.3259164831309578</v>
+      </c>
+      <c r="E20">
+        <v>0.349341983409011</v>
+      </c>
+      <c r="F20">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.08680589194068666</v>
+      </c>
+      <c r="D21">
+        <v>0.2158906752733552</v>
+      </c>
+      <c r="E21">
+        <v>0.2563229231535687</v>
+      </c>
+      <c r="F21">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.06105225317894969</v>
+      </c>
+      <c r="D22">
+        <v>0.0969843434813526</v>
+      </c>
+      <c r="E22">
+        <v>0.1625920347355866</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.02585601494974687</v>
+      </c>
+      <c r="D23">
+        <v>-0.06494525043473325</v>
+      </c>
+      <c r="E23">
+        <v>0.05778803540052692</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.04128469913940203</v>
+      </c>
+      <c r="D24">
+        <v>0.005910855888278415</v>
+      </c>
+      <c r="E24">
+        <v>0.09133284515938611</v>
+      </c>
+      <c r="F24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.01047418346509743</v>
+      </c>
+      <c r="D25">
+        <v>-0.1357459954659005</v>
+      </c>
+      <c r="E25">
+        <v>0.01970334079764307</v>
+      </c>
+      <c r="F25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.05510833465978804</v>
+      </c>
+      <c r="D26">
+        <v>0.06961054382979832</v>
+      </c>
+      <c r="E26">
+        <v>0.1324141125595165</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.05155079912618565</v>
+      </c>
+      <c r="D27">
+        <v>0.05326673335565963</v>
+      </c>
+      <c r="E27">
+        <v>0.1559865216938914</v>
+      </c>
+      <c r="F27">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.03542473790617628</v>
+      </c>
+      <c r="D28">
+        <v>-0.02109234067069289</v>
+      </c>
+      <c r="E28">
+        <v>0.1010804604556476</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.01277218595862273</v>
+      </c>
+      <c r="D29">
+        <v>-0.1254856937232876</v>
+      </c>
+      <c r="E29">
+        <v>0.03349522508080478</v>
+      </c>
+      <c r="F29">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0.03002954469729913</v>
+      </c>
+      <c r="D30">
+        <v>-0.04583078073080512</v>
+      </c>
+      <c r="E30">
+        <v>0.0648439352653236</v>
+      </c>
+      <c r="F30">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>-0.00816501483516352</v>
+      </c>
+      <c r="D31">
+        <v>-0.2215414993256478</v>
+      </c>
+      <c r="E31">
+        <v>-0.01469910894692749</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>-0.01381870601992252</v>
+      </c>
+      <c r="D32">
+        <v>-0.2477289907217751</v>
+      </c>
+      <c r="E32">
+        <v>-0.02467700681559313</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>-0.009970820234887379</v>
+      </c>
+      <c r="D33">
+        <v>-0.2302290958507794</v>
+      </c>
+      <c r="E33">
+        <v>-0.01906579293345768</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0.03429454009565469</v>
+      </c>
+      <c r="D34">
+        <v>-0.02631304453119759</v>
+      </c>
+      <c r="E34">
+        <v>0.1009620032978257</v>
+      </c>
+      <c r="F34">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>0.01103390042349872</v>
+      </c>
+      <c r="D35">
+        <v>-0.1335573794691857</v>
+      </c>
+      <c r="E35">
+        <v>0.02617857230270445</v>
+      </c>
+      <c r="F35">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0.002564111341456066</v>
+      </c>
+      <c r="D36">
+        <v>-0.1725520295889221</v>
+      </c>
+      <c r="E36">
+        <v>0.005927047818980737</v>
+      </c>
+      <c r="F36">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>-0.01376185371348504</v>
+      </c>
+      <c r="D37">
+        <v>-0.2472422138125031</v>
+      </c>
+      <c r="E37">
+        <v>-0.02560331781026313</v>
+      </c>
+      <c r="F37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>-0.02455926865354352</v>
+      </c>
+      <c r="D38">
+        <v>-0.2972017948114059</v>
+      </c>
+      <c r="E38">
+        <v>-0.04429755366757189</v>
+      </c>
+      <c r="F38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>-0.009624269955700204</v>
+      </c>
+      <c r="D39">
+        <v>-0.2287217772726726</v>
+      </c>
+      <c r="E39">
+        <v>-0.01965714153017045</v>
+      </c>
+      <c r="F39">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>-0.006464666499599425</v>
+      </c>
+      <c r="D40">
+        <v>-0.2142917609609004</v>
+      </c>
+      <c r="E40">
+        <v>-0.01324216550077302</v>
+      </c>
+      <c r="F40">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0.01349943142952159</v>
+      </c>
+      <c r="D41">
+        <v>-0.1223352118736415</v>
+      </c>
+      <c r="E41">
+        <v>0.03094796207859808</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>0.000222895393636513</v>
+      </c>
+      <c r="D42">
+        <v>-0.1835282922631919</v>
+      </c>
+      <c r="E42">
+        <v>0.0005195164944819219</v>
+      </c>
+      <c r="F42">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>0.01396368226980726</v>
+      </c>
+      <c r="D43">
+        <v>-0.1201571454119315</v>
+      </c>
+      <c r="E43">
+        <v>0.03815878870246676</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>-0.03366302925807951</v>
+      </c>
+      <c r="D44">
+        <v>-0.339241225552754</v>
+      </c>
+      <c r="E44">
+        <v>-0.06088027023000958</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>-0.01730533368014331</v>
+      </c>
+      <c r="D45">
+        <v>-0.2641694731997938</v>
+      </c>
+      <c r="E45">
+        <v>-0.0350987316836072</v>
+      </c>
+      <c r="F45">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>-0.02492162559799627</v>
+      </c>
+      <c r="D46">
+        <v>-0.2994028903231004</v>
+      </c>
+      <c r="E46">
+        <v>-0.05113860574747975</v>
+      </c>
+      <c r="F46">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>-0.001767384369385505</v>
+      </c>
+      <c r="D47">
+        <v>-0.192685570334372</v>
+      </c>
+      <c r="E47">
+        <v>-0.003616470555143957</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0.01398029079942265</v>
+      </c>
+      <c r="D48">
+        <v>-0.1201814597103591</v>
+      </c>
+      <c r="E48">
+        <v>0.03135264467722187</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>-0.03982907880987052</v>
+      </c>
+      <c r="D49">
+        <v>-0.3682562267154226</v>
+      </c>
+      <c r="E49">
+        <v>-0.07653553808571675</v>
+      </c>
+      <c r="F49">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>-0.05646688463380767</v>
+      </c>
+      <c r="D50">
+        <v>-0.4446795658228988</v>
+      </c>
+      <c r="E50">
+        <v>-0.104877158807416</v>
+      </c>
+      <c r="F50">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>-0.05231219967345035</v>
+      </c>
+      <c r="D51">
+        <v>-0.4252181726226436</v>
+      </c>
+      <c r="E51">
+        <v>-0.09545353862647146</v>
+      </c>
+      <c r="F51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>-0.01615199747362339</v>
+      </c>
+      <c r="D52">
+        <v>-0.2589352956080948</v>
+      </c>
+      <c r="E52">
+        <v>-0.03202982919248012</v>
+      </c>
+      <c r="F52">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>0.0003849872331989079</v>
+      </c>
+      <c r="D53">
+        <v>-0.1828606774945593</v>
+      </c>
+      <c r="E53">
+        <v>0.0007816690973296047</v>
+      </c>
+      <c r="F53">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>-0.0232237644981742</v>
+      </c>
+      <c r="D54">
+        <v>-0.2917291865446724</v>
+      </c>
+      <c r="E54">
+        <v>-0.05575311578126291</v>
+      </c>
+      <c r="F54">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>-0.05319825829926628</v>
+      </c>
+      <c r="D55">
+        <v>-0.4300026963393671</v>
+      </c>
+      <c r="E55">
+        <v>-0.1000594741328256</v>
+      </c>
+      <c r="F55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>-0.06018326923421657</v>
+      </c>
+      <c r="D56">
+        <v>-0.4620192063020846</v>
+      </c>
+      <c r="E56">
+        <v>-0.1107085009944219</v>
+      </c>
+      <c r="F56">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>-0.07204584937161962</v>
+      </c>
+      <c r="D57">
+        <v>-0.5168513779303657</v>
+      </c>
+      <c r="E57">
+        <v>-0.1339907855152659</v>
+      </c>
+      <c r="F57">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>-0.08853507677824135</v>
+      </c>
+      <c r="D58">
+        <v>-0.5921691234473676</v>
+      </c>
+      <c r="E58">
+        <v>-0.1532660091153953</v>
+      </c>
+      <c r="F58">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>-0.06515740880245735</v>
+      </c>
+      <c r="D59">
+        <v>-0.4851714297457084</v>
+      </c>
+      <c r="E59">
+        <v>-0.1227694335977824</v>
+      </c>
+      <c r="F59">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>-0.04455304832756657</v>
+      </c>
+      <c r="D60">
+        <v>-0.3903679373054906</v>
+      </c>
+      <c r="E60">
+        <v>-0.09419198764991697</v>
+      </c>
+      <c r="F60">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>-0.06145521555776823</v>
+      </c>
+      <c r="D61">
+        <v>-0.4685975021119863</v>
+      </c>
+      <c r="E61">
+        <v>-0.1112810168983137</v>
+      </c>
+      <c r="F61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>-0.05036411740750935</v>
+      </c>
+      <c r="D62">
+        <v>-0.4175450202729284</v>
+      </c>
+      <c r="E62">
+        <v>-0.09367541557402158</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>-0.02411133052326919</v>
+      </c>
+      <c r="D63">
+        <v>-0.2966014288360206</v>
+      </c>
+      <c r="E63">
+        <v>-0.04818192651575765</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>-0.01731802350398626</v>
+      </c>
+      <c r="D64">
+        <v>-0.2652043136204757</v>
+      </c>
+      <c r="E64">
+        <v>-0.0378554313072817</v>
+      </c>
+      <c r="F64">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>-0.03009387168155098</v>
+      </c>
+      <c r="D65">
+        <v>-0.3238275262895909</v>
+      </c>
+      <c r="E65">
+        <v>-0.05379013208618344</v>
+      </c>
+      <c r="F65">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>-0.01587148131595084</v>
+      </c>
+      <c r="D66">
+        <v>-0.2582687726538491</v>
+      </c>
+      <c r="E66">
+        <v>-0.03042513086433373</v>
+      </c>
+      <c r="F66">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>0.01253357945614009</v>
+      </c>
+      <c r="D67">
+        <v>-0.1270870586643247</v>
+      </c>
+      <c r="E67">
+        <v>0.02790618630900336</v>
+      </c>
+      <c r="F67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>0.01852857033597122</v>
+      </c>
+      <c r="D68">
+        <v>-0.0994845630889062</v>
+      </c>
+      <c r="E68">
+        <v>0.03885235660670351</v>
+      </c>
+      <c r="F68">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>-0.0263812782172993</v>
+      </c>
+      <c r="D69">
+        <v>-0.3072761253850652</v>
+      </c>
+      <c r="E69">
+        <v>-0.05390453523156368</v>
+      </c>
+      <c r="F69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>-0.0403749560053005</v>
+      </c>
+      <c r="D70">
+        <v>-0.371632790316928</v>
+      </c>
+      <c r="E70">
+        <v>-0.09334038224253484</v>
+      </c>
+      <c r="F70">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>-0.04155314729875093</v>
+      </c>
+      <c r="D71">
+        <v>-0.3771219732193173</v>
+      </c>
+      <c r="E71">
+        <v>-0.1019643785155956</v>
+      </c>
+      <c r="F71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>-5.667250767160681e-05</v>
+      </c>
+      <c r="D72">
+        <v>-0.1855319041329141</v>
+      </c>
+      <c r="E72">
+        <v>-0.0001258741654276517</v>
+      </c>
+      <c r="F72">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>0.007313760861563656</v>
+      </c>
+      <c r="D73">
+        <v>-0.1513491704831103</v>
+      </c>
+      <c r="E73">
+        <v>0.0174013707531223</v>
+      </c>
+      <c r="F73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>-0.006372333168853772</v>
+      </c>
+      <c r="D74">
+        <v>-0.2145288777616007</v>
+      </c>
+      <c r="E74">
+        <v>-0.01425247245027367</v>
+      </c>
+      <c r="F74">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>-0.01851665269072977</v>
+      </c>
+      <c r="D75">
+        <v>-0.2704180170742814</v>
+      </c>
+      <c r="E75">
+        <v>-0.04247481355969739</v>
+      </c>
+      <c r="F75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>0.01024928055574126</v>
+      </c>
+      <c r="D76">
+        <v>-0.1376241451163396</v>
+      </c>
+      <c r="E76">
+        <v>0.02977480554599643</v>
+      </c>
+      <c r="F76">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>0.04390087505799545</v>
+      </c>
+      <c r="D77">
+        <v>0.01807460237544752</v>
+      </c>
+      <c r="E77">
+        <v>0.1385433804021639</v>
+      </c>
+      <c r="F77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>0.06507414599106931</v>
+      </c>
+      <c r="D78">
+        <v>0.1162359256227869</v>
+      </c>
+      <c r="E78">
+        <v>0.2106742789957783</v>
+      </c>
+      <c r="F78">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>0.03677732242215903</v>
+      </c>
+      <c r="D79">
+        <v>-0.0149268727090288</v>
+      </c>
+      <c r="E79">
+        <v>0.09491095744935631</v>
+      </c>
+      <c r="F79">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>0.06612824100404224</v>
+      </c>
+      <c r="D80">
+        <v>0.1213124189033594</v>
+      </c>
+      <c r="E80">
+        <v>0.2031281746047719</v>
+      </c>
+      <c r="F80">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>0.05252380799867717</v>
+      </c>
+      <c r="D81">
+        <v>0.05813563132950197</v>
+      </c>
+      <c r="E81">
+        <v>0.1536350076809579</v>
+      </c>
+      <c r="F81">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>0.06767324255449259</v>
+      </c>
+      <c r="D82">
+        <v>0.1288498197639013</v>
+      </c>
+      <c r="E82">
+        <v>0.1959854926057892</v>
+      </c>
+      <c r="F82">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>0.1112084352685112</v>
+      </c>
+      <c r="D83">
+        <v>0.3320624667893025</v>
+      </c>
+      <c r="E83">
+        <v>0.4617414508433946</v>
+      </c>
+      <c r="F83">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>0.1292622397317966</v>
+      </c>
+      <c r="D84">
+        <v>0.416880003839162</v>
+      </c>
+      <c r="E84">
+        <v>0.5633347185891512</v>
+      </c>
+      <c r="F84">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>0.1226927857720519</v>
+      </c>
+      <c r="D85">
+        <v>0.3862713454099042</v>
+      </c>
+      <c r="E85">
+        <v>0.5552087893754349</v>
+      </c>
+      <c r="F85">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
